--- a/aws_workspaces_database.xlsx
+++ b/aws_workspaces_database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RodrigoBuero\PycharmProjects\aws_wsAutoTerminate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD9CAFCD-0C5E-4C39-97ED-010AEDE9F723}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D11D57B-B99C-4EFD-8FD1-989791231DE4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -335,7 +335,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -513,6 +513,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -676,10 +682,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1004,7 +1011,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1017,22 +1024,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>53</v>
       </c>
     </row>
